--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H2">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I2">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J2">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N2">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q2">
-        <v>0.05721748532661864</v>
+        <v>0.1384628529913333</v>
       </c>
       <c r="R2">
-        <v>0.05721748532661864</v>
+        <v>1.246165676922</v>
       </c>
       <c r="S2">
-        <v>0.06627066268578524</v>
+        <v>0.1207054366965774</v>
       </c>
       <c r="T2">
-        <v>0.06627066268578524</v>
+        <v>0.1207054366965774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H3">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I3">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J3">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N3">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q3">
-        <v>0.3757178794757774</v>
+        <v>0.4003962539513333</v>
       </c>
       <c r="R3">
-        <v>0.3757178794757774</v>
+        <v>3.603566285562</v>
       </c>
       <c r="S3">
-        <v>0.4351654518478855</v>
+        <v>0.3490467200462382</v>
       </c>
       <c r="T3">
-        <v>0.4351654518478855</v>
+        <v>0.3490467200462383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H4">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I4">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J4">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.206895846244706</v>
+        <v>0.310473</v>
       </c>
       <c r="N4">
-        <v>0.206895846244706</v>
+        <v>0.931419</v>
       </c>
       <c r="O4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="P4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="Q4">
-        <v>0.07336275742206122</v>
+        <v>0.113808845718</v>
       </c>
       <c r="R4">
-        <v>0.07336275742206122</v>
+        <v>1.024279611462</v>
       </c>
       <c r="S4">
-        <v>0.08497050373786187</v>
+        <v>0.09921322669253706</v>
       </c>
       <c r="T4">
-        <v>0.08497050373786187</v>
+        <v>0.09921322669253706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H5">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I5">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J5">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N5">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O5">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P5">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q5">
-        <v>0.04035556986036151</v>
+        <v>0.1048961579827778</v>
       </c>
       <c r="R5">
-        <v>0.04035556986036151</v>
+        <v>0.944065421845</v>
       </c>
       <c r="S5">
-        <v>0.04674078810773045</v>
+        <v>0.09144356254089948</v>
       </c>
       <c r="T5">
-        <v>0.04674078810773045</v>
+        <v>0.09144356254089947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H6">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I6">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J6">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N6">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P6">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q6">
-        <v>0.2649943290310564</v>
+        <v>0.3033306609161111</v>
       </c>
       <c r="R6">
-        <v>0.2649943290310564</v>
+        <v>2.729975948245</v>
       </c>
       <c r="S6">
-        <v>0.3069227823036336</v>
+        <v>0.2644294776421539</v>
       </c>
       <c r="T6">
-        <v>0.3069227823036336</v>
+        <v>0.2644294776421539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H7">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I7">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J7">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.206895846244706</v>
+        <v>0.310473</v>
       </c>
       <c r="N7">
-        <v>0.206895846244706</v>
+        <v>0.931419</v>
       </c>
       <c r="O7">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="P7">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="Q7">
-        <v>0.05174285212631359</v>
+        <v>0.08621886955500001</v>
       </c>
       <c r="R7">
-        <v>0.05174285212631359</v>
+        <v>0.775969825995</v>
       </c>
       <c r="S7">
-        <v>0.0599298113171035</v>
+        <v>0.07516157638159394</v>
       </c>
       <c r="T7">
-        <v>0.0599298113171035</v>
+        <v>0.07516157638159393</v>
       </c>
     </row>
   </sheetData>
